--- a/biology/Botanique/Clivia_(pomme)/Clivia_(pomme).xlsx
+++ b/biology/Botanique/Clivia_(pomme)/Clivia_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clivia est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,11 +523,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété a été obtenue vers 1930 à Brandenburg en Allemagne et distribuée en 1961.
-Clivia a été créée à l'Institut für Acker- und Pflanzenbau de Müncheberg[1] à Märkisch-Oderland en Allemagne de l'Est, qui se trouvait à l'époque en République démocratique allemande. 
-C'est un hybride de 'Geheimrat Doktor Oldenburg' et 'Cox's Orange Pippin'. Il a été signalé comme une nouvelle variété en 1964[2] et 1965[3]. C'est le parent d'un nouveau cultivar, 'Pinova', en 1965[4].
+Clivia a été créée à l'Institut für Acker- und Pflanzenbau de Müncheberg à Märkisch-Oderland en Allemagne de l'Est, qui se trouvait à l'époque en République démocratique allemande. 
+C'est un hybride de 'Geheimrat Doktor Oldenburg' et 'Cox's Orange Pippin'. Il a été signalé comme une nouvelle variété en 1964 et 1965. C'est le parent d'un nouveau cultivar, 'Pinova', en 1965.
 </t>
         </is>
       </c>
@@ -544,18 +558,17 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Clivia provient du croisement Dr. Oldenburg × Cox's Orange Pippin[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La pomme Clivia provient du croisement Dr. Oldenburg × Cox's Orange Pippin.
 Descendant(s):
 Reanda
 Regia
 Releika
 Renora
-Rewena (résistante aux races communes de tavelure)
-Hybrides
-Les cultivars qui descendent de 'Clivia' : 'Pilot' ('Clivia' x 'Ondine'), 'Pinova' ('Clivia' x 'Golden Delicious'), 'Rubinstep' ('Clivia'x 'Rubin')[6], Pirouette (Rubin x Clivia).
-</t>
+Rewena (résistante aux races communes de tavelure)</t>
         </is>
       </c>
     </row>
@@ -580,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Parenté</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cultivars qui descendent de 'Clivia' : 'Pilot' ('Clivia' x 'Ondine'), 'Pinova' ('Clivia' x 'Golden Delicious'), 'Rubinstep' ('Clivia'x 'Rubin'), Pirouette (Rubin x Clivia).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clivia_(pomme)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clivia_(pomme)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de floraison: A
 S-génotype: S5S9
